--- a/core/seed_inventories_inventorydeductheader.xlsx
+++ b/core/seed_inventories_inventorydeductheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC8361-2D94-41CB-9B36-A247FBA6B95F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFEF0A-0360-498E-BCB1-6212CFCBB141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45662</v>
+        <v>45659</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>45663</v>
+        <v>45659</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/core/seed_inventories_inventorydeductheader.xlsx
+++ b/core/seed_inventories_inventorydeductheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFEF0A-0360-498E-BCB1-6212CFCBB141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969FCE59-C20A-491A-B8CA-F9642B97A7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>test-id-14</t>
-  </si>
-  <si>
     <t>ID 01</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>DEDUCTER</t>
+  </si>
+  <si>
+    <t>EMP-ID-25</t>
   </si>
 </sst>
 </file>
@@ -903,29 +903,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>45659</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>45659</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
